--- a/MODYFY_DATA/param_to_csv.xlsx
+++ b/MODYFY_DATA/param_to_csv.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="1170" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="add_param" sheetId="1" r:id="rId1"/>
     <sheet name="del_param" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
   <si>
     <t>Name</t>
   </si>
@@ -50,73 +50,112 @@
     <t>String</t>
   </si>
   <si>
-    <t>Angle</t>
-  </si>
-  <si>
     <t>Integer</t>
   </si>
   <si>
-    <t>LineType</t>
-  </si>
-  <si>
-    <t>PenColor</t>
-  </si>
-  <si>
-    <t>FillPattern</t>
-  </si>
-  <si>
-    <t>Material</t>
-  </si>
-  <si>
     <t>RealNum</t>
   </si>
   <si>
     <t>Length</t>
   </si>
   <si>
-    <t>test_param_1</t>
-  </si>
-  <si>
-    <t>test_param_2</t>
-  </si>
-  <si>
-    <t>test_param_3</t>
-  </si>
-  <si>
-    <t>test_param_4</t>
-  </si>
-  <si>
-    <t>test_param_5</t>
-  </si>
-  <si>
-    <t>test_param_6</t>
-  </si>
-  <si>
-    <t>test_param_7</t>
-  </si>
-  <si>
-    <t>test_param_8</t>
-  </si>
-  <si>
-    <t>test_param_9</t>
-  </si>
-  <si>
-    <t>test_param_10</t>
-  </si>
-  <si>
-    <t>test_param_11</t>
-  </si>
-  <si>
     <t>Title</t>
   </si>
   <si>
     <t>kjh</t>
+  </si>
+  <si>
+    <t>Скрытые параметры</t>
+  </si>
+  <si>
+    <t>mep_par_h</t>
+  </si>
+  <si>
+    <t>show_el</t>
+  </si>
+  <si>
+    <t>Показ элемента</t>
+  </si>
+  <si>
+    <t>syst_name</t>
+  </si>
+  <si>
+    <t>Имя системы</t>
+  </si>
+  <si>
+    <t>!!!</t>
+  </si>
+  <si>
+    <t>Параметры оборудования</t>
+  </si>
+  <si>
+    <t>mep_par_eq</t>
+  </si>
+  <si>
+    <t>Наименование</t>
+  </si>
+  <si>
+    <t>Обозначение</t>
+  </si>
+  <si>
+    <t>Код</t>
+  </si>
+  <si>
+    <t>Завод-изготовитель</t>
+  </si>
+  <si>
+    <t>Кол-во</t>
+  </si>
+  <si>
+    <t>Масса ед., кг.</t>
+  </si>
+  <si>
+    <t>Входит в сборку</t>
+  </si>
+  <si>
+    <t>subpos</t>
+  </si>
+  <si>
+    <t>obozn</t>
+  </si>
+  <si>
+    <t>naen</t>
+  </si>
+  <si>
+    <t>eq_code</t>
+  </si>
+  <si>
+    <t>eq_plant</t>
+  </si>
+  <si>
+    <t>Единица измерения</t>
+  </si>
+  <si>
+    <t>komment</t>
+  </si>
+  <si>
+    <t>kol_vo_spec</t>
+  </si>
+  <si>
+    <t>ves</t>
+  </si>
+  <si>
+    <t>mun_elev</t>
+  </si>
+  <si>
+    <t>n_elev</t>
+  </si>
+  <si>
+    <t>otm_elem</t>
+  </si>
+  <si>
+    <t>spec_add_param</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -272,21 +311,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -296,11 +320,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -600,10 +650,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,110 +665,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="5"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="7"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="8" t="s">
+      <c r="A2" s="10"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="B3" s="2" t="str">
-        <f>CONCATENATE(A3,C3)</f>
-        <v>test_param_1Length</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2">
-        <v>1</v>
-      </c>
-      <c r="G3" s="2">
-        <v>1</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="2" t="str">
-        <f t="shared" ref="B4:B13" si="0">CONCATENATE(A4,C4)</f>
-        <v>test_param_2Boolean</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>1</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
       </c>
       <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2">
-        <v>1</v>
-      </c>
-      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="B5" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>test_param_3String</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="2">
-        <v>1</v>
+      <c r="D5" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -726,226 +770,309 @@
       <c r="F5" s="1">
         <v>1</v>
       </c>
-      <c r="G5" s="2">
-        <v>1</v>
-      </c>
-      <c r="H5" s="2">
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>test_param_4Angle</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2">
-        <v>1</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="B7" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>test_param_5Title</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1</v>
-      </c>
-      <c r="G7" s="2">
-        <v>1</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>test_param_6Integer</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2">
-        <v>1</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>test_param_7LineType</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2">
-        <v>1</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>test_param_8PenColor</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="2">
-        <v>1</v>
-      </c>
       <c r="E10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
       </c>
-      <c r="G10" s="2">
-        <v>1</v>
-      </c>
-      <c r="H10" s="2">
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>test_param_9FillPattern</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="2">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11" s="2">
-        <v>1</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="C14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>test_param_10Material</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="2">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1">
-        <v>1</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
-      <c r="G12" s="2">
-        <v>1</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="C15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>test_param_11RealNum</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="2">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
-      <c r="G13" s="2">
-        <v>1</v>
-      </c>
-      <c r="H13" s="2">
+      <c r="C17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
         <v>0</v>
       </c>
     </row>
@@ -957,6 +1084,11 @@
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
   </mergeCells>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"Title"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -966,7 +1098,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -976,16 +1108,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6"/>
+      <c r="A2" s="10"/>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/MODYFY_DATA/param_to_csv.xlsx
+++ b/MODYFY_DATA/param_to_csv.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="72">
   <si>
     <t>Name</t>
   </si>
@@ -86,12 +86,6 @@
     <t>!!!</t>
   </si>
   <si>
-    <t>Параметры оборудования</t>
-  </si>
-  <si>
-    <t>mep_par_eq</t>
-  </si>
-  <si>
     <t>Наименование</t>
   </si>
   <si>
@@ -150,6 +144,93 @@
   </si>
   <si>
     <t>spec_add_param</t>
+  </si>
+  <si>
+    <t>Спецификация</t>
+  </si>
+  <si>
+    <t>mep_par_spec</t>
+  </si>
+  <si>
+    <t>mep_vol</t>
+  </si>
+  <si>
+    <t>mep_l</t>
+  </si>
+  <si>
+    <t>mep_razm</t>
+  </si>
+  <si>
+    <t>mep_razm_abs</t>
+  </si>
+  <si>
+    <t>mep_s_el</t>
+  </si>
+  <si>
+    <t>mep_s_ins</t>
+  </si>
+  <si>
+    <t>mep_s_pokr</t>
+  </si>
+  <si>
+    <t>mep_m_ins</t>
+  </si>
+  <si>
+    <t>mep_m_pokr</t>
+  </si>
+  <si>
+    <t>Материал изоляции</t>
+  </si>
+  <si>
+    <t>Материал покрытия</t>
+  </si>
+  <si>
+    <t>Длина, м</t>
+  </si>
+  <si>
+    <t>Размер сечения (BxH), мм</t>
+  </si>
+  <si>
+    <t>Размер сечения (MAXxMIN), мм</t>
+  </si>
+  <si>
+    <t>Наружная площадь, кв.м.</t>
+  </si>
+  <si>
+    <t>Площадь изоляции, кв.м.</t>
+  </si>
+  <si>
+    <t>Площадь покрытия, кв.м.</t>
+  </si>
+  <si>
+    <t>Внутренний объём, куб.м.</t>
+  </si>
+  <si>
+    <t>Отметка оси элемента</t>
+  </si>
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>Доп.параметры в смету</t>
+  </si>
+  <si>
+    <t>Номер этажа</t>
+  </si>
+  <si>
+    <t>Ручной этаж</t>
+  </si>
+  <si>
+    <t>mep_s_in</t>
+  </si>
+  <si>
+    <t>Площадь сечения, кв.м.</t>
+  </si>
+  <si>
+    <t>otm_elem_abs</t>
+  </si>
+  <si>
+    <t>Отметка оси элемента абсолютная</t>
   </si>
 </sst>
 </file>
@@ -339,7 +420,17 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -650,10 +741,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -779,7 +870,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>9</v>
@@ -802,7 +896,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>11</v>
@@ -825,7 +922,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>13</v>
@@ -848,13 +948,16 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>22</v>
+        <v>70</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -871,19 +974,22 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="E10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
@@ -894,16 +1000,16 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -917,10 +1023,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>10</v>
@@ -940,10 +1046,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>10</v>
@@ -963,13 +1069,13 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
@@ -986,13 +1092,13 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
@@ -1009,10 +1115,10 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>10</v>
@@ -1032,13 +1138,13 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
@@ -1055,10 +1161,10 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>12</v>
@@ -1073,6 +1179,259 @@
         <v>0</v>
       </c>
       <c r="H18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1084,7 +1443,12 @@
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
   </mergeCells>
-  <conditionalFormatting sqref="C1:C1048576">
+  <conditionalFormatting sqref="C21:C1048576 C1:C19">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+      <formula>"Title"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Title"</formula>
     </cfRule>
